--- a/target/classes/files/outputData.xlsx
+++ b/target/classes/files/outputData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -38,15 +38,6 @@
     <t>jknkd</t>
   </si>
   <si>
-    <t>kifane</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>kfkf</t>
-  </si>
-  <si>
     <t>Aymen</t>
   </si>
   <si>
@@ -57,6 +48,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>2992</t>
   </si>
 </sst>
 </file>
@@ -109,7 +103,7 @@
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.85546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.58984375" customWidth="true" bestFit="true"/>
   </cols>
@@ -150,7 +144,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -162,41 +156,41 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>555.0</v>
+        <v>5498.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>5498.0</v>
+        <v>20020.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>20020.0</v>
+        <v>1223.0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/files/outputData.xlsx
+++ b/target/classes/files/outputData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>2992</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,7 +100,7 @@
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.46484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.85546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.58984375" customWidth="true" bestFit="true"/>
   </cols>
@@ -176,23 +173,6 @@
         <v>20020.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1223.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/files/outputData.xlsx
+++ b/target/classes/files/outputData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Kifane</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>testzka</t>
   </si>
 </sst>
 </file>
@@ -92,16 +122,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.91796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.4140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.58984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -173,6 +203,91 @@
         <v>20020.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1223.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.23456789E8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
